--- a/data/input/Deudas/Anticipos - PAGLIAROLI GINO.xlsx
+++ b/data/input/Deudas/Anticipos - PAGLIAROLI GINO.xlsx
@@ -66,10 +66,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,272 +487,260 @@
     <row r="3"/>
     <row r="4"/>
     <row r="5"/>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-    </row>
+    <row r="6"/>
+    <row r="7"/>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Impuesto</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Ant. / Cuota</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Período Fiscal</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>Fecha de Vencimiento</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Saldo</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>11 - GANANCIAS PERSONAS FISICAS</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>14/10/2024</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>4.464.853,40</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>11 - GANANCIAS PERSONAS FISICAS</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>13/11/2024</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>4.464.853,40</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>11 - GANANCIAS PERSONAS FISICAS</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="C11" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>13/12/2024</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>4.464.853,40</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>11 - GANANCIAS PERSONAS FISICAS</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="C12" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>13/02/2025</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>4.464.853,40</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>11 - GANANCIAS PERSONAS FISICAS</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="C13" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>14/04/2025</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>4.464.853,40</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>180 - IMPTO.S/BIENES PERSONALES</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="C14" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>14/10/2024</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>299.595,26</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>180 - IMPTO.S/BIENES PERSONALES</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>13/11/2024</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>299.595,26</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>180 - IMPTO.S/BIENES PERSONALES</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="C16" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>13/12/2024</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>299.595,26</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>180 - IMPTO.S/BIENES PERSONALES</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="C17" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>13/02/2025</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>299.595,26</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>180 - IMPTO.S/BIENES PERSONALES</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="C18" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>14/04/2025</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>299.595,26</t>
         </is>
